--- a/ResultadoEleicoesDistritos/LEIRIA_LEIRIA.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_LEIRIA.xlsx
@@ -597,64 +597,64 @@
         <v>34009</v>
       </c>
       <c r="H2" t="n">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="I2" t="n">
-        <v>3344</v>
+        <v>3266</v>
       </c>
       <c r="J2" t="n">
-        <v>14083</v>
+        <v>13928</v>
       </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L2" t="n">
-        <v>3879</v>
+        <v>3871</v>
       </c>
       <c r="M2" t="n">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="N2" t="n">
-        <v>2419</v>
+        <v>2472</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R2" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S2" t="n">
-        <v>1535</v>
+        <v>1513</v>
       </c>
       <c r="T2" t="n">
-        <v>2393</v>
+        <v>2488</v>
       </c>
       <c r="U2" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="V2" t="n">
-        <v>21704</v>
+        <v>21797</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>21706</v>
+        <v>21757</v>
       </c>
       <c r="Y2" t="n">
         <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="AA2" t="n">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
